--- a/exams/exam2/Exam2.xlsx
+++ b/exams/exam2/Exam2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yg/code/github/physiology-en-585-601/exams/exam2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0E2006-3745-3044-8FC3-43D330525E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA351A8-21A9-1842-A996-664729FDA501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{22AD6996-2A9D-944E-8AC1-316E500AD137}"/>
+    <workbookView minimized="1" xWindow="10960" yWindow="4280" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{22AD6996-2A9D-944E-8AC1-316E500AD137}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Init" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,15 +25,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Arterial Pressure</t>
+  </si>
+  <si>
+    <t>CVP</t>
+  </si>
+  <si>
+    <t>MAP=CO * SVR</t>
+  </si>
+  <si>
+    <t>R ~ 1/r^4</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r^4</t>
+  </si>
+  <si>
+    <t>1/r^4</t>
+  </si>
+  <si>
+    <t># Total questions</t>
+  </si>
+  <si>
+    <t>Total min</t>
+  </si>
+  <si>
+    <t>Time per Q</t>
+  </si>
+  <si>
+    <t>If first 21 questions in hour</t>
+  </si>
+  <si>
+    <t>4 remaining questions</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,15 +428,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38155C0-1E71-A546-BA56-5A97A0628858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783F69B-9F6C-5742-AA9B-4E9C2E4F7DE8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38155C0-1E71-A546-BA56-5A97A0628858}">
+  <dimension ref="C5:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>E6/E5</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>E7/21</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>E7/4</f>
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f>M17 * (M15-M14)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f>M14+M18</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f>M19/6</f>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>75/150</f>
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <f>H31^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>(C31-C32)/C31</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <f>1/H32</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>